--- a/01-ouput-files/log-files/BIGRAMS-logfile--ytube-transcripts--samsung.xlsx
+++ b/01-ouput-files/log-files/BIGRAMS-logfile--ytube-transcripts--samsung.xlsx
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" s="2">
-        <v>44364.54726667343</v>
+        <v>44375.90793335615</v>
       </c>
       <c r="C2">
         <v>93</v>

--- a/01-ouput-files/log-files/BIGRAMS-logfile--ytube-transcripts--samsung.xlsx
+++ b/01-ouput-files/log-files/BIGRAMS-logfile--ytube-transcripts--samsung.xlsx
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" s="2">
-        <v>44375.90793335615</v>
+        <v>44375.90972654754</v>
       </c>
       <c r="C2">
         <v>93</v>
